--- a/_Out/NFDataCfg/Excel_Ini/Map.xlsx
+++ b/_Out/NFDataCfg/Excel_Ini/Map.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Desktop\NoahGameFrame\_Out\NFDataCfg\Excel_Ini\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="20730" windowHeight="9172"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9173"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="135">
   <si>
     <t>Id</t>
   </si>
@@ -421,19 +426,16 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>Force</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -447,159 +449,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -618,194 +469,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -929,251 +594,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1230,61 +653,13 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1304,6 +679,14 @@
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1630,30 +1013,29 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:F109"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="F$1:G$1048576"/>
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.6371681415929" customWidth="1"/>
-    <col min="2" max="2" width="18.6371681415929" customWidth="1"/>
-    <col min="3" max="3" width="11.4513274336283" customWidth="1"/>
-    <col min="4" max="4" width="14.8141592920354" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.46484375" customWidth="1"/>
+    <col min="4" max="4" width="14.796875" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" ht="27" spans="1:6">
+    <row r="1" spans="1:6" s="6" customFormat="1" ht="27">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1673,7 +1055,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="7" customFormat="1" spans="1:6">
+    <row r="2" spans="1:6" s="7" customFormat="1">
       <c r="A2" s="12" t="s">
         <v>6</v>
       </c>
@@ -1693,7 +1075,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" s="7" customFormat="1" spans="1:6">
+    <row r="3" spans="1:6" s="7" customFormat="1">
       <c r="A3" s="12" t="s">
         <v>8</v>
       </c>
@@ -1713,7 +1095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="7" customFormat="1" spans="1:6">
+    <row r="4" spans="1:6" s="7" customFormat="1">
       <c r="A4" s="12" t="s">
         <v>9</v>
       </c>
@@ -1733,7 +1115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" s="7" customFormat="1" spans="1:6">
+    <row r="5" spans="1:6" s="7" customFormat="1">
       <c r="A5" s="12" t="s">
         <v>10</v>
       </c>
@@ -1753,7 +1135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="7" customFormat="1" spans="1:6">
+    <row r="6" spans="1:6" s="7" customFormat="1">
       <c r="A6" s="12" t="s">
         <v>11</v>
       </c>
@@ -1773,7 +1155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="8" customFormat="1" spans="1:6">
+    <row r="7" spans="1:6" s="8" customFormat="1">
       <c r="A7" s="14" t="s">
         <v>12</v>
       </c>
@@ -1793,9 +1175,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="8" customFormat="1" spans="1:6">
+    <row r="8" spans="1:6" s="8" customFormat="1">
       <c r="A8" s="14" t="s">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="B8" s="8" t="b">
         <v>0</v>
@@ -1813,49 +1195,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="9" customFormat="1" ht="54.75" spans="1:6">
-      <c r="A9" s="15" t="s">
+    <row r="9" spans="1:6" s="8" customFormat="1">
+      <c r="A9" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="9" customFormat="1" ht="54">
+      <c r="A10" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B10" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C10" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D10" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F10" s="16" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10">
-        <v>10</v>
-      </c>
-      <c r="C10">
-        <v>10000000</v>
-      </c>
-      <c r="D10">
-        <v>10000000</v>
-      </c>
-      <c r="E10">
-        <v>10000000</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -1875,7 +1257,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12">
         <v>10</v>
@@ -1895,7 +1277,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13">
         <v>10</v>
@@ -1915,7 +1297,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14">
         <v>10</v>
@@ -1935,7 +1317,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15">
         <v>10</v>
@@ -1955,7 +1337,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16">
         <v>10</v>
@@ -1975,7 +1357,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>10</v>
@@ -1995,7 +1377,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>10</v>
@@ -2015,7 +1397,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>10</v>
@@ -2035,10 +1417,10 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C20">
         <v>10000000</v>
@@ -2050,12 +1432,12 @@
         <v>10000000</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -2075,7 +1457,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22">
         <v>20</v>
@@ -2095,7 +1477,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23">
         <v>20</v>
@@ -2115,7 +1497,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24">
         <v>20</v>
@@ -2135,7 +1517,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25">
         <v>20</v>
@@ -2155,7 +1537,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26">
         <v>20</v>
@@ -2175,7 +1557,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27">
         <v>20</v>
@@ -2195,7 +1577,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28">
         <v>20</v>
@@ -2215,7 +1597,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B29">
         <v>20</v>
@@ -2235,10 +1617,10 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B30">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C30">
         <v>10000000</v>
@@ -2250,12 +1632,12 @@
         <v>10000000</v>
       </c>
       <c r="F30">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -2275,7 +1657,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B32">
         <v>30</v>
@@ -2295,7 +1677,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B33">
         <v>30</v>
@@ -2315,7 +1697,7 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B34">
         <v>30</v>
@@ -2335,7 +1717,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35">
         <v>30</v>
@@ -2355,7 +1737,7 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B36">
         <v>30</v>
@@ -2375,7 +1757,7 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B37">
         <v>30</v>
@@ -2395,7 +1777,7 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B38">
         <v>30</v>
@@ -2415,7 +1797,7 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B39">
         <v>30</v>
@@ -2435,10 +1817,10 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B40">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C40">
         <v>10000000</v>
@@ -2450,12 +1832,12 @@
         <v>10000000</v>
       </c>
       <c r="F40">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B41">
         <v>40</v>
@@ -2475,7 +1857,7 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B42">
         <v>40</v>
@@ -2495,7 +1877,7 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B43">
         <v>40</v>
@@ -2515,7 +1897,7 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B44">
         <v>40</v>
@@ -2535,7 +1917,7 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B45">
         <v>40</v>
@@ -2555,7 +1937,7 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B46">
         <v>40</v>
@@ -2575,7 +1957,7 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B47">
         <v>40</v>
@@ -2595,7 +1977,7 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B48">
         <v>40</v>
@@ -2615,7 +1997,7 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B49">
         <v>40</v>
@@ -2635,7 +2017,7 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B50">
         <v>40</v>
@@ -2650,12 +2032,12 @@
         <v>10000000</v>
       </c>
       <c r="F50">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B51">
         <v>40</v>
@@ -2675,7 +2057,7 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B52">
         <v>40</v>
@@ -2695,7 +2077,7 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B53">
         <v>40</v>
@@ -2715,7 +2097,7 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B54">
         <v>40</v>
@@ -2735,7 +2117,7 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B55">
         <v>40</v>
@@ -2755,7 +2137,7 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B56">
         <v>40</v>
@@ -2775,7 +2157,7 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57">
         <v>40</v>
@@ -2795,7 +2177,7 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58">
         <v>40</v>
@@ -2815,10 +2197,10 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C59">
         <v>10000000</v>
@@ -2835,7 +2217,7 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60">
         <v>50</v>
@@ -2850,12 +2232,12 @@
         <v>10000000</v>
       </c>
       <c r="F60">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61">
         <v>50</v>
@@ -2875,7 +2257,7 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62">
         <v>50</v>
@@ -2895,7 +2277,7 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63">
         <v>50</v>
@@ -2915,7 +2297,7 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B64">
         <v>50</v>
@@ -2935,7 +2317,7 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B65">
         <v>50</v>
@@ -2955,7 +2337,7 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B66">
         <v>50</v>
@@ -2975,7 +2357,7 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B67">
         <v>50</v>
@@ -2995,7 +2377,7 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B68">
         <v>50</v>
@@ -3015,10 +2397,10 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B69">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C69">
         <v>10000000</v>
@@ -3035,7 +2417,7 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B70">
         <v>60</v>
@@ -3050,12 +2432,12 @@
         <v>10000000</v>
       </c>
       <c r="F70">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B71">
         <v>60</v>
@@ -3075,7 +2457,7 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B72">
         <v>60</v>
@@ -3095,7 +2477,7 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B73">
         <v>60</v>
@@ -3115,7 +2497,7 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B74">
         <v>60</v>
@@ -3135,7 +2517,7 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B75">
         <v>60</v>
@@ -3155,7 +2537,7 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B76">
         <v>60</v>
@@ -3175,7 +2557,7 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B77">
         <v>60</v>
@@ -3195,7 +2577,7 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B78">
         <v>60</v>
@@ -3215,10 +2597,10 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B79">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C79">
         <v>10000000</v>
@@ -3235,7 +2617,7 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B80">
         <v>70</v>
@@ -3250,12 +2632,12 @@
         <v>10000000</v>
       </c>
       <c r="F80">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B81">
         <v>70</v>
@@ -3275,7 +2657,7 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B82">
         <v>70</v>
@@ -3295,7 +2677,7 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B83">
         <v>70</v>
@@ -3315,7 +2697,7 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B84">
         <v>70</v>
@@ -3335,7 +2717,7 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B85">
         <v>70</v>
@@ -3355,7 +2737,7 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B86">
         <v>70</v>
@@ -3375,7 +2757,7 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B87">
         <v>70</v>
@@ -3395,7 +2777,7 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B88">
         <v>70</v>
@@ -3415,10 +2797,10 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B89">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C89">
         <v>10000000</v>
@@ -3435,7 +2817,7 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B90">
         <v>80</v>
@@ -3450,12 +2832,12 @@
         <v>10000000</v>
       </c>
       <c r="F90">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B91">
         <v>80</v>
@@ -3475,7 +2857,7 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B92">
         <v>80</v>
@@ -3495,7 +2877,7 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B93">
         <v>80</v>
@@ -3515,7 +2897,7 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B94">
         <v>80</v>
@@ -3535,7 +2917,7 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B95">
         <v>80</v>
@@ -3555,7 +2937,7 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B96">
         <v>80</v>
@@ -3575,7 +2957,7 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B97">
         <v>80</v>
@@ -3595,7 +2977,7 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B98">
         <v>80</v>
@@ -3615,10 +2997,10 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B99">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C99">
         <v>10000000</v>
@@ -3635,7 +3017,7 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B100">
         <v>90</v>
@@ -3650,12 +3032,12 @@
         <v>10000000</v>
       </c>
       <c r="F100">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B101">
         <v>90</v>
@@ -3675,7 +3057,7 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B102">
         <v>90</v>
@@ -3695,7 +3077,7 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B103">
         <v>90</v>
@@ -3715,7 +3097,7 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B104">
         <v>90</v>
@@ -3735,7 +3117,7 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B105">
         <v>90</v>
@@ -3755,7 +3137,7 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B106">
         <v>90</v>
@@ -3775,7 +3157,7 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B107">
         <v>90</v>
@@ -3795,7 +3177,7 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B108">
         <v>90</v>
@@ -3815,7 +3197,7 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B109">
         <v>90</v>
@@ -3833,22 +3215,41 @@
         <v>10</v>
       </c>
     </row>
+    <row r="110" spans="1:6">
+      <c r="A110" t="s">
+        <v>119</v>
+      </c>
+      <c r="B110">
+        <v>90</v>
+      </c>
+      <c r="C110">
+        <v>10000000</v>
+      </c>
+      <c r="D110">
+        <v>10000000</v>
+      </c>
+      <c r="E110">
+        <v>10000000</v>
+      </c>
+      <c r="F110">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9 F1:F6 F110:F1048576 B7:E8 F7:H8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10 F1:F6 F111:F1048576 B7:H9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3857,27 +3258,27 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="23.1769911504425" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.8141592920354" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.6371681415929" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.4513274336283" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.6371681415929" style="3" customWidth="1"/>
+    <col min="1" max="1" width="23.19921875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.796875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.46484375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="3" customWidth="1"/>
     <col min="6" max="7" width="9" style="3"/>
-    <col min="8" max="8" width="9.36283185840708" style="3" customWidth="1"/>
-    <col min="9" max="9" width="10.3628318584071" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="3" customWidth="1"/>
     <col min="10" max="10" width="19" style="3" customWidth="1"/>
-    <col min="11" max="11" width="10.1769911504425" style="3" customWidth="1"/>
+    <col min="11" max="11" width="10.19921875" style="3" customWidth="1"/>
     <col min="12" max="12" width="9" style="3"/>
-    <col min="13" max="14" width="12.6371681415929" style="3" customWidth="1"/>
+    <col min="13" max="14" width="12.6640625" style="3" customWidth="1"/>
     <col min="15" max="15" width="14" style="3" customWidth="1"/>
     <col min="16" max="16" width="9" style="3"/>
-    <col min="17" max="17" width="16.4513274336283" style="3" customWidth="1"/>
+    <col min="17" max="17" width="16.46484375" style="3" customWidth="1"/>
     <col min="18" max="18" width="14" style="3" customWidth="1"/>
-    <col min="19" max="20" width="16.4513274336283" style="3" customWidth="1"/>
+    <col min="19" max="20" width="16.46484375" style="3" customWidth="1"/>
     <col min="21" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:2">
+    <row r="1" spans="1:9" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3885,7 +3286,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:2">
+    <row r="2" spans="1:9" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
         <v>121</v>
       </c>
@@ -3893,7 +3294,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:2">
+    <row r="3" spans="1:9" s="2" customFormat="1">
       <c r="A3" s="2" t="s">
         <v>122</v>
       </c>
@@ -3901,7 +3302,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:2">
+    <row r="4" spans="1:9" s="2" customFormat="1">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -3909,7 +3310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:2">
+    <row r="5" spans="1:9" s="2" customFormat="1">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -3917,7 +3318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:2">
+    <row r="6" spans="1:9" s="2" customFormat="1">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -3925,7 +3326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:2">
+    <row r="7" spans="1:9" s="2" customFormat="1">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -3933,7 +3334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" spans="1:2">
+    <row r="8" spans="1:9" s="2" customFormat="1">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -3941,7 +3342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" spans="1:9">
+    <row r="9" spans="1:9" s="2" customFormat="1">
       <c r="A9" s="2" t="s">
         <v>123</v>
       </c>
@@ -3970,7 +3371,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" spans="1:9">
+    <row r="10" spans="1:9" s="2" customFormat="1">
       <c r="A10" s="2" t="s">
         <v>132</v>
       </c>
@@ -3999,7 +3400,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" spans="1:2">
+    <row r="11" spans="1:9" s="2" customFormat="1">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -4009,8 +3410,8 @@
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B9 E10:F10 C9:C10 M$1:N$1048576"/>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B10 A9:A10 L$1:L$1048576">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B9 E10:F10 C9:C10 M1:N1048576"/>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B10 A9:A10 L1:L1048576">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B8 D11:G1048576 A4:B6 D1:G8">
@@ -4020,8 +3421,7 @@
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>